--- a/files/1040091604_1_1_1_ .xlsx
+++ b/files/1040091604_1_1_1_ .xlsx
@@ -6399,8 +6399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF93D9F3-1A32-4D84-97FA-80FC5EBBA240}">
   <dimension ref="B1:H3815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
